--- a/TMQ6WebSolution/FrontEndSolution/CommonWebTemplate/Template/0/RP0260/1/template_RP0260.xlsx
+++ b/TMQ6WebSolution/FrontEndSolution/CommonWebTemplate/Template/0/RP0260/1/template_RP0260.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project\TMQ\CommonTemplate\TMQ_Version\TMQ6WebSolution\FrontEndSolution\CommonWebTemplate\Template\0\RP0260\1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\vs_project\workspace\TMQ-NEW\TMQ_Version\TMQ6WebSolution\FrontEndSolution\CommonWebTemplate\Template\0\RP0260\1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B68C6258-0F27-4DAF-AEEC-E14E7178B991}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C68B705-5805-44AC-BB79-C23C1667DE65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A25140AF-7B12-4EFC-A572-9CF6FFB78DAC}"/>
+    <workbookView xWindow="28680" yWindow="-9435" windowWidth="29040" windowHeight="15840" xr2:uid="{A25140AF-7B12-4EFC-A572-9CF6FFB78DAC}"/>
   </bookViews>
   <sheets>
     <sheet name="予備品在庫表" sheetId="2" r:id="rId1"/>
@@ -385,10 +385,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>@入庫年月</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>@部門コード</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -402,6 +398,13 @@
   </si>
   <si>
     <t>@管理No.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>@入庫年月日</t>
+    <rPh sb="5" eb="6">
+      <t>ヒ</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -409,8 +412,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="176" formatCode="#,##0_ "/>
+    <numFmt numFmtId="180" formatCode="yyyy/mm"/>
   </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
@@ -535,22 +539,19 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="55" fontId="7" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -562,11 +563,14 @@
     <xf numFmtId="55" fontId="6" fillId="2" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="55" fontId="7" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="7" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="180" fontId="7" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -590,7 +594,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="表紙0"/>
@@ -679,7 +683,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="調査票Ⅰ～Ⅲ"/>
@@ -1000,7 +1004,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="項目一覧(SAP版)"/>
@@ -1475,7 +1479,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="１．InfoCube (YKCH0010)案１"/>
@@ -1582,7 +1586,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink5.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="表紙1"/>
@@ -1627,9 +1631,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 テーマ">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1667,7 +1671,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1773,7 +1777,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1915,7 +1919,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1942,19 +1946,19 @@
     <col min="5" max="6" width="7.109375" style="5" customWidth="1"/>
     <col min="7" max="7" width="5.109375" style="7" customWidth="1"/>
     <col min="8" max="8" width="8.109375" style="7" customWidth="1"/>
-    <col min="9" max="9" width="8.109375" style="8" customWidth="1"/>
-    <col min="10" max="10" width="5.109375" style="9" customWidth="1"/>
-    <col min="11" max="11" width="6.5546875" style="9" customWidth="1"/>
-    <col min="12" max="12" width="5.109375" style="9" customWidth="1"/>
-    <col min="13" max="13" width="6.5546875" style="9" customWidth="1"/>
-    <col min="14" max="14" width="10" style="10" customWidth="1"/>
+    <col min="9" max="9" width="8.109375" style="15" customWidth="1"/>
+    <col min="10" max="10" width="5.109375" style="8" customWidth="1"/>
+    <col min="11" max="11" width="6.5546875" style="8" customWidth="1"/>
+    <col min="12" max="12" width="5.109375" style="8" customWidth="1"/>
+    <col min="13" max="13" width="6.5546875" style="8" customWidth="1"/>
+    <col min="14" max="14" width="10" style="9" customWidth="1"/>
     <col min="15" max="19" width="7.33203125" style="1"/>
     <col min="20" max="20" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="21" max="16384" width="7.33203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="13" t="s">
         <v>8</v>
       </c>
       <c r="B1" s="2"/>
@@ -1972,46 +1976,46 @@
       <c r="N1" s="1"/>
     </row>
     <row r="2" spans="1:14" ht="24" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="G2" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="H2" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="13" t="s">
+      <c r="I2" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="11" t="s">
+      <c r="J2" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="11" t="s">
+      <c r="K2" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="11" t="s">
+      <c r="L2" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="11" t="s">
+      <c r="M2" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="12" t="s">
+      <c r="N2" s="11" t="s">
         <v>14</v>
       </c>
     </row>
@@ -2038,24 +2042,24 @@
         <v>23</v>
       </c>
       <c r="H3" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="K3" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="L3" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="I3" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="J3" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="K3" s="9" t="s">
+      <c r="M3" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="L3" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="M3" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="N3" s="10" t="s">
+      <c r="N3" s="9" t="s">
         <v>18</v>
       </c>
     </row>
@@ -2069,6 +2073,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100809DC7585110DF4581368E0B6EBB5804" ma:contentTypeVersion="6" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="e43fc29822ba0d1a50ffe50a4065973e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="5b3155b1-6fa1-4135-8aca-e52746f1a591" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="543458457304a0113e38a93f807365a6" ns2:_="">
     <xsd:import namespace="5b3155b1-6fa1-4135-8aca-e52746f1a591"/>
@@ -2226,22 +2245,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5877A06C-3DBA-4EDD-8AEA-EFD0B5AF2492}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7E1ED17E-6DE8-44B9-A101-CE64F110F29E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{84B0C698-61F6-4E9B-ABD5-1D9D8F39425A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2257,21 +2278,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7E1ED17E-6DE8-44B9-A101-CE64F110F29E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5877A06C-3DBA-4EDD-8AEA-EFD0B5AF2492}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>